--- a/PlainTimeInvariant/output/fevdPercentiles.xlsx
+++ b/PlainTimeInvariant/output/fevdPercentiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="252" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="336" uniqueCount="28">
   <si>
     <t>Time</t>
   </si>
@@ -450,22 +450,22 @@
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.018468188700786942</v>
+        <v>0.025608255543504137</v>
       </c>
       <c r="F4" s="0">
-        <v>0.42663571744352957</v>
+        <v>0.40169611983693537</v>
       </c>
       <c r="G4" s="0">
-        <v>0.78796284427034535</v>
+        <v>0.79218298315397495</v>
       </c>
       <c r="H4" s="0">
-        <v>0.020997017557025134</v>
+        <v>0.015745267772067043</v>
       </c>
       <c r="I4" s="0">
-        <v>0.36005149519701607</v>
+        <v>0.39889765848582703</v>
       </c>
       <c r="J4" s="0">
-        <v>0.78162360174000822</v>
+        <v>0.77709198692010362</v>
       </c>
       <c r="K4" s="0">
         <v>0</v>
@@ -477,49 +477,49 @@
         <v>0</v>
       </c>
       <c r="N4" s="0">
-        <v>0.0088393818575266403</v>
+        <v>0.0090018081657735997</v>
       </c>
       <c r="O4" s="0">
-        <v>0.1893789496727441</v>
+        <v>0.19212276806697839</v>
       </c>
       <c r="P4" s="0">
-        <v>0.38269943396916395</v>
+        <v>0.37851972910261755</v>
       </c>
       <c r="Q4" s="0">
-        <v>0.010402073610286441</v>
+        <v>0.013541329480036075</v>
       </c>
       <c r="R4" s="0">
-        <v>0.20473701914091005</v>
+        <v>0.19887296336086896</v>
       </c>
       <c r="S4" s="0">
-        <v>0.38628981434302889</v>
+        <v>0.37987982653153796</v>
       </c>
       <c r="T4" s="0">
-        <v>0.55165122805355393</v>
+        <v>0.55450446304891376</v>
       </c>
       <c r="U4" s="0">
-        <v>0.63134038420960858</v>
+        <v>0.63040880697629753</v>
       </c>
       <c r="V4" s="0">
-        <v>0.72629897812179744</v>
+        <v>0.72870244982236976</v>
       </c>
       <c r="W4" s="0">
-        <v>0.0022871083912013898</v>
+        <v>0.0016487959943804799</v>
       </c>
       <c r="X4" s="0">
-        <v>0.048794140555095136</v>
+        <v>0.042429399679364627</v>
       </c>
       <c r="Y4" s="0">
-        <v>0.12120387190606007</v>
+        <v>0.11858864717916544</v>
       </c>
       <c r="Z4" s="0">
-        <v>0.0015953402212821098</v>
+        <v>0.0028811498900203031</v>
       </c>
       <c r="AA4" s="0">
-        <v>0.045148405886549475</v>
+        <v>0.046486290756862447</v>
       </c>
       <c r="AB4" s="0">
-        <v>0.11652746233065624</v>
+        <v>0.12687294570192001</v>
       </c>
     </row>
     <row r="5">
@@ -527,85 +527,85 @@
         <v>42095</v>
       </c>
       <c r="B5" s="0">
-        <v>1.6322948403155886e-05</v>
+        <v>1.7309626214275286e-05</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0003927384696056996</v>
+        <v>0.00041988599050691596</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0024396697381174979</v>
+        <v>0.0025225673453872612</v>
       </c>
       <c r="E5" s="0">
-        <v>0.032069322010620897</v>
+        <v>0.045183134968646996</v>
       </c>
       <c r="F5" s="0">
-        <v>0.72204467515631121</v>
+        <v>0.66818610094120234</v>
       </c>
       <c r="G5" s="0">
-        <v>1.3247962003465137</v>
+        <v>1.3285189505827819</v>
       </c>
       <c r="H5" s="0">
-        <v>0.038561818984281786</v>
+        <v>0.026516111022523863</v>
       </c>
       <c r="I5" s="0">
-        <v>0.60582556168346235</v>
+        <v>0.66666351263601575</v>
       </c>
       <c r="J5" s="0">
-        <v>1.3189435150438502</v>
+        <v>1.3037101105756388</v>
       </c>
       <c r="K5" s="0">
-        <v>2.7738026490265999e-05</v>
+        <v>2.9950111364720244e-05</v>
       </c>
       <c r="L5" s="0">
-        <v>0.00066883705098326582</v>
+        <v>0.00068060914103007151</v>
       </c>
       <c r="M5" s="0">
-        <v>0.0023855354756322474</v>
+        <v>0.0026609286726126027</v>
       </c>
       <c r="N5" s="0">
-        <v>0.01950242971468389</v>
+        <v>0.021406080463501793</v>
       </c>
       <c r="O5" s="0">
-        <v>0.38590339687795688</v>
+        <v>0.38708187235611574</v>
       </c>
       <c r="P5" s="0">
-        <v>0.76423570228327287</v>
+        <v>0.76113232284868471</v>
       </c>
       <c r="Q5" s="0">
-        <v>0.02314448447230346</v>
+        <v>0.021466123939040391</v>
       </c>
       <c r="R5" s="0">
-        <v>0.40118336797674725</v>
+        <v>0.40244424464622985</v>
       </c>
       <c r="S5" s="0">
-        <v>0.78683651314024472</v>
+        <v>0.76695057739258432</v>
       </c>
       <c r="T5" s="0">
-        <v>1.0025119911469638</v>
+        <v>1.0061173677062527</v>
       </c>
       <c r="U5" s="0">
-        <v>1.1547519044114716</v>
+        <v>1.1568532904430462</v>
       </c>
       <c r="V5" s="0">
-        <v>1.3457069517660085</v>
+        <v>1.3398049449625504</v>
       </c>
       <c r="W5" s="0">
-        <v>0.0065208940547891933</v>
+        <v>0.0055580878045036509</v>
       </c>
       <c r="X5" s="0">
-        <v>0.12251729236444542</v>
+        <v>0.10924555462111579</v>
       </c>
       <c r="Y5" s="0">
-        <v>0.30237183726528127</v>
+        <v>0.28646028479760055</v>
       </c>
       <c r="Z5" s="0">
-        <v>0.0047068635878238915</v>
+        <v>0.0084461748333911901</v>
       </c>
       <c r="AA5" s="0">
-        <v>0.11280369259180288</v>
+        <v>0.12301480896237078</v>
       </c>
       <c r="AB5" s="0">
-        <v>0.28543738243334815</v>
+        <v>0.29263543495168598</v>
       </c>
     </row>
     <row r="6">
@@ -613,85 +613,85 @@
         <v>42186</v>
       </c>
       <c r="B6" s="0">
-        <v>0.00021058592963425142</v>
+        <v>0.00023744327562529125</v>
       </c>
       <c r="C6" s="0">
-        <v>0.0011268230809466629</v>
+        <v>0.0013508160668313355</v>
       </c>
       <c r="D6" s="0">
-        <v>0.0056856552755108758</v>
+        <v>0.0057330734584548591</v>
       </c>
       <c r="E6" s="0">
-        <v>0.042080909497566515</v>
+        <v>0.064182399891130532</v>
       </c>
       <c r="F6" s="0">
-        <v>0.88343509551395938</v>
+        <v>0.81528907217868851</v>
       </c>
       <c r="G6" s="0">
-        <v>1.6223373313788187</v>
+        <v>1.6292247895720049</v>
       </c>
       <c r="H6" s="0">
-        <v>0.048369517243312524</v>
+        <v>0.037525654295260072</v>
       </c>
       <c r="I6" s="0">
-        <v>0.73325128171861786</v>
+        <v>0.82641578962315276</v>
       </c>
       <c r="J6" s="0">
-        <v>1.6121069081226087</v>
+        <v>1.5895452597503126</v>
       </c>
       <c r="K6" s="0">
-        <v>0.00011087686030762349</v>
+        <v>0.00013427927455152426</v>
       </c>
       <c r="L6" s="0">
-        <v>0.0017801259732795442</v>
+        <v>0.0017247038862945475</v>
       </c>
       <c r="M6" s="0">
-        <v>0.0069032750464448258</v>
+        <v>0.0071771165705382294</v>
       </c>
       <c r="N6" s="0">
-        <v>0.033474701781694059</v>
+        <v>0.029669139280567261</v>
       </c>
       <c r="O6" s="0">
-        <v>0.57078676370308135</v>
+        <v>0.5420531527445418</v>
       </c>
       <c r="P6" s="0">
-        <v>1.1044503238126131</v>
+        <v>1.1043512683792343</v>
       </c>
       <c r="Q6" s="0">
-        <v>0.042367137058315352</v>
+        <v>0.033436852446521115</v>
       </c>
       <c r="R6" s="0">
-        <v>0.58659197682648867</v>
+        <v>0.58313836542725495</v>
       </c>
       <c r="S6" s="0">
-        <v>1.1422519183362163</v>
+        <v>1.1054460519816127</v>
       </c>
       <c r="T6" s="0">
-        <v>1.3627360219995694</v>
+        <v>1.3771543801674591</v>
       </c>
       <c r="U6" s="0">
-        <v>1.5963232926686748</v>
+        <v>1.6038373169266624</v>
       </c>
       <c r="V6" s="0">
-        <v>1.8723579530963814</v>
+        <v>1.8639647549286549</v>
       </c>
       <c r="W6" s="0">
-        <v>0.013813654229692192</v>
+        <v>0.012973930469087361</v>
       </c>
       <c r="X6" s="0">
-        <v>0.23184975940257244</v>
+        <v>0.20847877109347146</v>
       </c>
       <c r="Y6" s="0">
-        <v>0.5512956485925723</v>
+        <v>0.52157974673181529</v>
       </c>
       <c r="Z6" s="0">
-        <v>0.011445028830237094</v>
+        <v>0.017820666764828373</v>
       </c>
       <c r="AA6" s="0">
-        <v>0.21012584505445892</v>
+        <v>0.22404922779618486</v>
       </c>
       <c r="AB6" s="0">
-        <v>0.50453531049255551</v>
+        <v>0.52797946680425101</v>
       </c>
     </row>
     <row r="7">
@@ -699,85 +699,85 @@
         <v>42278</v>
       </c>
       <c r="B7" s="0">
-        <v>0.00047091090247058725</v>
+        <v>0.00052964268265921766</v>
       </c>
       <c r="C7" s="0">
-        <v>0.0026477047673379044</v>
+        <v>0.0029534666122973743</v>
       </c>
       <c r="D7" s="0">
-        <v>0.011769950843251716</v>
+        <v>0.011754761859386875</v>
       </c>
       <c r="E7" s="0">
-        <v>0.060268886374789457</v>
+        <v>0.082475340801495725</v>
       </c>
       <c r="F7" s="0">
-        <v>0.97198236731674437</v>
+        <v>0.90517966824173357</v>
       </c>
       <c r="G7" s="0">
-        <v>1.7820709019707479</v>
+        <v>1.777047987275767</v>
       </c>
       <c r="H7" s="0">
-        <v>0.057847484601853724</v>
+        <v>0.054055899245806061</v>
       </c>
       <c r="I7" s="0">
-        <v>0.80005013486491539</v>
+        <v>0.91804927514228063</v>
       </c>
       <c r="J7" s="0">
-        <v>1.7730728431227938</v>
+        <v>1.7361543323340904</v>
       </c>
       <c r="K7" s="0">
-        <v>0.00024340463702267207</v>
+        <v>0.00029191991298394986</v>
       </c>
       <c r="L7" s="0">
-        <v>0.0032319836563414681</v>
+        <v>0.0032554912434914277</v>
       </c>
       <c r="M7" s="0">
-        <v>0.012839485052090815</v>
+        <v>0.012881308461200331</v>
       </c>
       <c r="N7" s="0">
-        <v>0.045216494534321978</v>
+        <v>0.042572061696633343</v>
       </c>
       <c r="O7" s="0">
-        <v>0.69868972090607295</v>
+        <v>0.68779326167603105</v>
       </c>
       <c r="P7" s="0">
-        <v>1.4159360212567131</v>
+        <v>1.4182191776244655</v>
       </c>
       <c r="Q7" s="0">
-        <v>0.05716245941487462</v>
+        <v>0.047347688004163807</v>
       </c>
       <c r="R7" s="0">
-        <v>0.73492165381064323</v>
+        <v>0.75639874951092523</v>
       </c>
       <c r="S7" s="0">
-        <v>1.4555244819089221</v>
+        <v>1.4180152260813843</v>
       </c>
       <c r="T7" s="0">
-        <v>1.6546969263190827</v>
+        <v>1.6791606952006126</v>
       </c>
       <c r="U7" s="0">
-        <v>1.9667824647504877</v>
+        <v>1.9830794108568839</v>
       </c>
       <c r="V7" s="0">
-        <v>2.3422788430727914</v>
+        <v>2.3221197034816887</v>
       </c>
       <c r="W7" s="0">
-        <v>0.023228891227786375</v>
+        <v>0.024465308639186355</v>
       </c>
       <c r="X7" s="0">
-        <v>0.36609168589419872</v>
+        <v>0.33076619967596149</v>
       </c>
       <c r="Y7" s="0">
-        <v>0.84931376844083184</v>
+        <v>0.8218186003979856</v>
       </c>
       <c r="Z7" s="0">
-        <v>0.02146737852832447</v>
+        <v>0.027112088967756347</v>
       </c>
       <c r="AA7" s="0">
-        <v>0.33151718507075223</v>
+        <v>0.34225015852323126</v>
       </c>
       <c r="AB7" s="0">
-        <v>0.79927462609717215</v>
+        <v>0.82642235117905705</v>
       </c>
     </row>
   </sheetData>

--- a/PlainTimeInvariant/output/fevdPercentiles.xlsx
+++ b/PlainTimeInvariant/output/fevdPercentiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="336" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="494" uniqueCount="46">
   <si>
     <t>Time</t>
   </si>
@@ -97,6 +97,60 @@
   </si>
   <si>
     <t>STN___POL_3</t>
+  </si>
+  <si>
+    <t>GDP___DEM_4</t>
+  </si>
+  <si>
+    <t>GDP___DEM_5</t>
+  </si>
+  <si>
+    <t>GDP___SUP_4</t>
+  </si>
+  <si>
+    <t>GDP___SUP_5</t>
+  </si>
+  <si>
+    <t>GDP___POL_4</t>
+  </si>
+  <si>
+    <t>GDP___POL_5</t>
+  </si>
+  <si>
+    <t>CPI___DEM_4</t>
+  </si>
+  <si>
+    <t>CPI___DEM_5</t>
+  </si>
+  <si>
+    <t>CPI___SUP_4</t>
+  </si>
+  <si>
+    <t>CPI___SUP_5</t>
+  </si>
+  <si>
+    <t>CPI___POL_4</t>
+  </si>
+  <si>
+    <t>CPI___POL_5</t>
+  </si>
+  <si>
+    <t>STN___DEM_4</t>
+  </si>
+  <si>
+    <t>STN___DEM_5</t>
+  </si>
+  <si>
+    <t>STN___SUP_4</t>
+  </si>
+  <si>
+    <t>STN___SUP_5</t>
+  </si>
+  <si>
+    <t>STN___POL_4</t>
+  </si>
+  <si>
+    <t>STN___POL_5</t>
   </si>
 </sst>
 </file>
@@ -142,40 +196,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AT7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
-    <col min="3" max="3" width="15.7109375" customWidth="true"/>
-    <col min="4" max="4" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="13.85546875" customWidth="true"/>
+    <col min="3" max="3" width="13.85546875" customWidth="true"/>
+    <col min="4" max="4" width="13.85546875" customWidth="true"/>
     <col min="5" max="5" width="13.7109375" customWidth="true"/>
     <col min="6" max="6" width="13.28515625" customWidth="true"/>
     <col min="7" max="7" width="13.28515625" customWidth="true"/>
-    <col min="8" max="8" width="13.7109375" customWidth="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true"/>
     <col min="9" max="9" width="13.28515625" customWidth="true"/>
     <col min="10" max="10" width="13.28515625" customWidth="true"/>
-    <col min="11" max="11" width="15.7109375" customWidth="true"/>
-    <col min="12" max="12" width="14.7109375" customWidth="true"/>
-    <col min="13" max="13" width="14.7109375" customWidth="true"/>
+    <col min="11" max="11" width="14.7109375" customWidth="true"/>
+    <col min="12" max="12" width="13" customWidth="true"/>
+    <col min="13" max="13" width="13" customWidth="true"/>
     <col min="14" max="14" width="14.7109375" customWidth="true"/>
     <col min="15" max="15" width="12.7109375" customWidth="true"/>
-    <col min="16" max="16" width="12.7109375" customWidth="true"/>
-    <col min="17" max="17" width="13.7109375" customWidth="true"/>
-    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.42578125" customWidth="true"/>
+    <col min="17" max="17" width="14.7109375" customWidth="true"/>
+    <col min="18" max="18" width="13.7109375" customWidth="true"/>
     <col min="19" max="19" width="12.7109375" customWidth="true"/>
-    <col min="20" max="20" width="13.5703125" customWidth="true"/>
+    <col min="20" max="20" width="14.7109375" customWidth="true"/>
     <col min="21" max="21" width="13.5703125" customWidth="true"/>
     <col min="22" max="22" width="13.5703125" customWidth="true"/>
     <col min="23" max="23" width="14.7109375" customWidth="true"/>
-    <col min="24" max="24" width="13.7109375" customWidth="true"/>
+    <col min="24" max="24" width="13" customWidth="true"/>
     <col min="25" max="25" width="13" customWidth="true"/>
-    <col min="26" max="26" width="14.7109375" customWidth="true"/>
-    <col min="27" max="27" width="13.7109375" customWidth="true"/>
+    <col min="26" max="26" width="13.7109375" customWidth="true"/>
+    <col min="27" max="27" width="13" customWidth="true"/>
     <col min="28" max="28" width="13" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="13.5703125" customWidth="true"/>
+    <col min="33" max="33" width="13.5703125" customWidth="true"/>
+    <col min="34" max="34" width="13.5703125" customWidth="true"/>
+    <col min="35" max="35" width="13.5703125" customWidth="true"/>
+    <col min="36" max="36" width="13.5703125" customWidth="true"/>
+    <col min="37" max="37" width="14.7109375" customWidth="true"/>
+    <col min="38" max="38" width="14.7109375" customWidth="true"/>
+    <col min="39" max="39" width="13.7109375" customWidth="true"/>
+    <col min="40" max="40" width="13.7109375" customWidth="true"/>
+    <col min="41" max="41" width="13" customWidth="true"/>
+    <col min="42" max="42" width="14.7109375" customWidth="true"/>
+    <col min="43" max="43" width="14.7109375" customWidth="true"/>
+    <col min="44" max="44" width="13.7109375" customWidth="true"/>
+    <col min="45" max="45" width="13.7109375" customWidth="true"/>
+    <col min="46" max="46" width="13" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -263,6 +335,60 @@
       <c r="AB1" s="0" t="s">
         <v>27</v>
       </c>
+      <c r="AC1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="0" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
@@ -349,6 +475,60 @@
       <c r="AB2" s="0">
         <v>0</v>
       </c>
+      <c r="AC2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
@@ -435,91 +615,199 @@
       <c r="AB3" s="0">
         <v>0</v>
       </c>
+      <c r="AC3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
         <v>42005</v>
       </c>
       <c r="B4" s="0">
-        <v>0</v>
+        <v>0.031024533923897129</v>
       </c>
       <c r="C4" s="0">
-        <v>0</v>
+        <v>0.35164073018899594</v>
       </c>
       <c r="D4" s="0">
-        <v>0</v>
+        <v>0.83911755757123718</v>
       </c>
       <c r="E4" s="0">
-        <v>0.025608255543504137</v>
+        <v>0.013469671582144179</v>
       </c>
       <c r="F4" s="0">
-        <v>0.40169611983693537</v>
+        <v>0.2171936624837878</v>
       </c>
       <c r="G4" s="0">
-        <v>0.79218298315397495</v>
+        <v>0.71044844356198344</v>
       </c>
       <c r="H4" s="0">
-        <v>0.015745267772067043</v>
+        <v>0.0081797478621105403</v>
       </c>
       <c r="I4" s="0">
-        <v>0.39889765848582703</v>
+        <v>0.1823878369881439</v>
       </c>
       <c r="J4" s="0">
-        <v>0.77709198692010362</v>
+        <v>0.71308509345602111</v>
       </c>
       <c r="K4" s="0">
-        <v>0</v>
+        <v>0.0091697116785062656</v>
       </c>
       <c r="L4" s="0">
-        <v>0</v>
+        <v>0.12777379526315541</v>
       </c>
       <c r="M4" s="0">
-        <v>0</v>
+        <v>0.35184493590156207</v>
       </c>
       <c r="N4" s="0">
-        <v>0.0090018081657735997</v>
+        <v>0.0077787270219739756</v>
       </c>
       <c r="O4" s="0">
-        <v>0.19212276806697839</v>
+        <v>0.1134122770581583</v>
       </c>
       <c r="P4" s="0">
-        <v>0.37851972910261755</v>
+        <v>0.32371322199248298</v>
       </c>
       <c r="Q4" s="0">
-        <v>0.013541329480036075</v>
+        <v>0.0026872531221097816</v>
       </c>
       <c r="R4" s="0">
-        <v>0.19887296336086896</v>
+        <v>0.075878697742373782</v>
       </c>
       <c r="S4" s="0">
-        <v>0.37987982653153796</v>
+        <v>0.30612000152695873</v>
       </c>
       <c r="T4" s="0">
-        <v>0.55450446304891376</v>
+        <v>0.0055892047879475496</v>
       </c>
       <c r="U4" s="0">
-        <v>0.63040880697629753</v>
+        <v>0.17477793718339621</v>
       </c>
       <c r="V4" s="0">
-        <v>0.72870244982236976</v>
+        <v>0.65647390429516128</v>
       </c>
       <c r="W4" s="0">
-        <v>0.0016487959943804799</v>
+        <v>0.0036312071019493578</v>
       </c>
       <c r="X4" s="0">
-        <v>0.042429399679364627</v>
+        <v>0.13544821864205248</v>
       </c>
       <c r="Y4" s="0">
-        <v>0.11858864717916544</v>
+        <v>0.58888167996008633</v>
       </c>
       <c r="Z4" s="0">
-        <v>0.0028811498900203031</v>
+        <v>0.030249677081215468</v>
       </c>
       <c r="AA4" s="0">
-        <v>0.046486290756862447</v>
+        <v>0.33508667254681729</v>
       </c>
       <c r="AB4" s="0">
-        <v>0.12687294570192001</v>
+        <v>0.72418202274757748</v>
+      </c>
+      <c r="AC4" s="0">
+        <v>0.20868383015394454</v>
+      </c>
+      <c r="AD4" s="0">
+        <v>0.3437008823189901</v>
+      </c>
+      <c r="AE4" s="0">
+        <v>0.38147962341180963</v>
+      </c>
+      <c r="AF4" s="0">
+        <v>0.55164585189391346</v>
+      </c>
+      <c r="AG4" s="0">
+        <v>0.57664200934589782</v>
+      </c>
+      <c r="AH4" s="0">
+        <v>0.63187541536871206</v>
+      </c>
+      <c r="AI4" s="0">
+        <v>0.69013797129092547</v>
+      </c>
+      <c r="AJ4" s="0">
+        <v>0.7281338306245928</v>
+      </c>
+      <c r="AK4" s="0">
+        <v>0.0020364986759115423</v>
+      </c>
+      <c r="AL4" s="0">
+        <v>0.0094029795466571593</v>
+      </c>
+      <c r="AM4" s="0">
+        <v>0.047224877988007896</v>
+      </c>
+      <c r="AN4" s="0">
+        <v>0.094128779391736223</v>
+      </c>
+      <c r="AO4" s="0">
+        <v>0.11778211542090078</v>
+      </c>
+      <c r="AP4" s="0">
+        <v>0.0016441785158894714</v>
+      </c>
+      <c r="AQ4" s="0">
+        <v>0.0071103948692360945</v>
+      </c>
+      <c r="AR4" s="0">
+        <v>0.040244236771974598</v>
+      </c>
+      <c r="AS4" s="0">
+        <v>0.090769713666299462</v>
+      </c>
+      <c r="AT4" s="0">
+        <v>0.11615622251810231</v>
       </c>
     </row>
     <row r="5">
@@ -527,85 +815,139 @@
         <v>42095</v>
       </c>
       <c r="B5" s="0">
-        <v>1.7309626214275286e-05</v>
+        <v>0.054785268028956793</v>
       </c>
       <c r="C5" s="0">
-        <v>0.00041988599050691596</v>
+        <v>0.65160232749153491</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0025225673453872612</v>
+        <v>1.5650064268827317</v>
       </c>
       <c r="E5" s="0">
-        <v>0.045183134968646996</v>
+        <v>0.028035483983435076</v>
       </c>
       <c r="F5" s="0">
-        <v>0.66818610094120234</v>
+        <v>0.42229908849357745</v>
       </c>
       <c r="G5" s="0">
-        <v>1.3285189505827819</v>
+        <v>1.3330318290650081</v>
       </c>
       <c r="H5" s="0">
-        <v>0.026516111022523863</v>
+        <v>0.015666269162330403</v>
       </c>
       <c r="I5" s="0">
-        <v>0.66666351263601575</v>
+        <v>0.33705108424565033</v>
       </c>
       <c r="J5" s="0">
-        <v>1.3037101105756388</v>
+        <v>1.3204545997765769</v>
       </c>
       <c r="K5" s="0">
-        <v>2.9950111364720244e-05</v>
+        <v>0.024830494837226331</v>
       </c>
       <c r="L5" s="0">
-        <v>0.00068060914103007151</v>
+        <v>0.28795419792597932</v>
       </c>
       <c r="M5" s="0">
-        <v>0.0026609286726126027</v>
+        <v>0.7651948015149127</v>
       </c>
       <c r="N5" s="0">
-        <v>0.021406080463501793</v>
+        <v>0.014814763861747269</v>
       </c>
       <c r="O5" s="0">
-        <v>0.38708187235611574</v>
+        <v>0.22937966272589327</v>
       </c>
       <c r="P5" s="0">
-        <v>0.76113232284868471</v>
+        <v>0.67213784995943837</v>
       </c>
       <c r="Q5" s="0">
-        <v>0.021466123939040391</v>
+        <v>0.0065797537286643682</v>
       </c>
       <c r="R5" s="0">
-        <v>0.40244424464622985</v>
+        <v>0.15863325590356636</v>
       </c>
       <c r="S5" s="0">
-        <v>0.76695057739258432</v>
+        <v>0.6556671904783451</v>
       </c>
       <c r="T5" s="0">
-        <v>1.0061173677062527</v>
+        <v>0.012911334330851927</v>
       </c>
       <c r="U5" s="0">
-        <v>1.1568532904430462</v>
+        <v>0.36021080390625726</v>
       </c>
       <c r="V5" s="0">
-        <v>1.3398049449625504</v>
+        <v>1.3396336012568697</v>
       </c>
       <c r="W5" s="0">
-        <v>0.0055580878045036509</v>
+        <v>0.0098545000106143796</v>
       </c>
       <c r="X5" s="0">
-        <v>0.10924555462111579</v>
+        <v>0.27960574247601211</v>
       </c>
       <c r="Y5" s="0">
-        <v>0.28646028479760055</v>
+        <v>1.1734889469927938</v>
       </c>
       <c r="Z5" s="0">
-        <v>0.0084461748333911901</v>
+        <v>0.055324330781346132</v>
       </c>
       <c r="AA5" s="0">
-        <v>0.12301480896237078</v>
+        <v>0.67110468564700365</v>
       </c>
       <c r="AB5" s="0">
-        <v>0.29263543495168598</v>
+        <v>1.4628139311241446</v>
+      </c>
+      <c r="AC5" s="0">
+        <v>0.42396111398602376</v>
+      </c>
+      <c r="AD5" s="0">
+        <v>0.69747130176598171</v>
+      </c>
+      <c r="AE5" s="0">
+        <v>0.77801052266659509</v>
+      </c>
+      <c r="AF5" s="0">
+        <v>1.0042989633204311</v>
+      </c>
+      <c r="AG5" s="0">
+        <v>1.0559134767471159</v>
+      </c>
+      <c r="AH5" s="0">
+        <v>1.163804174315251</v>
+      </c>
+      <c r="AI5" s="0">
+        <v>1.2717211908308292</v>
+      </c>
+      <c r="AJ5" s="0">
+        <v>1.3332272578818283</v>
+      </c>
+      <c r="AK5" s="0">
+        <v>0.0072203843953805736</v>
+      </c>
+      <c r="AL5" s="0">
+        <v>0.025332900606113151</v>
+      </c>
+      <c r="AM5" s="0">
+        <v>0.11965544848555501</v>
+      </c>
+      <c r="AN5" s="0">
+        <v>0.23527737901844314</v>
+      </c>
+      <c r="AO5" s="0">
+        <v>0.29237113096637263</v>
+      </c>
+      <c r="AP5" s="0">
+        <v>0.0048753648770222275</v>
+      </c>
+      <c r="AQ5" s="0">
+        <v>0.018974925945392469</v>
+      </c>
+      <c r="AR5" s="0">
+        <v>0.10715254257552992</v>
+      </c>
+      <c r="AS5" s="0">
+        <v>0.22737232479115779</v>
+      </c>
+      <c r="AT5" s="0">
+        <v>0.28774095880529121</v>
       </c>
     </row>
     <row r="6">
@@ -613,85 +955,139 @@
         <v>42186</v>
       </c>
       <c r="B6" s="0">
-        <v>0.00023744327562529125</v>
+        <v>0.069248941437442049</v>
       </c>
       <c r="C6" s="0">
-        <v>0.0013508160668313355</v>
+        <v>0.88816245333372312</v>
       </c>
       <c r="D6" s="0">
-        <v>0.0057330734584548591</v>
+        <v>2.1541314750745304</v>
       </c>
       <c r="E6" s="0">
-        <v>0.064182399891130532</v>
+        <v>0.042353243818005128</v>
       </c>
       <c r="F6" s="0">
-        <v>0.81528907217868851</v>
+        <v>0.59338008861486191</v>
       </c>
       <c r="G6" s="0">
-        <v>1.6292247895720049</v>
+        <v>1.811250375078024</v>
       </c>
       <c r="H6" s="0">
-        <v>0.037525654295260072</v>
+        <v>0.021522980928468327</v>
       </c>
       <c r="I6" s="0">
-        <v>0.82641578962315276</v>
+        <v>0.45326597306184679</v>
       </c>
       <c r="J6" s="0">
-        <v>1.5895452597503126</v>
+        <v>1.7981284210579143</v>
       </c>
       <c r="K6" s="0">
-        <v>0.00013427927455152426</v>
+        <v>0.042649405826194045</v>
       </c>
       <c r="L6" s="0">
-        <v>0.0017247038862945475</v>
+        <v>0.46250676566207855</v>
       </c>
       <c r="M6" s="0">
-        <v>0.0071771165705382294</v>
+        <v>1.1837060963688661</v>
       </c>
       <c r="N6" s="0">
-        <v>0.029669139280567261</v>
+        <v>0.019233227768977228</v>
       </c>
       <c r="O6" s="0">
-        <v>0.5420531527445418</v>
+        <v>0.33346354417443269</v>
       </c>
       <c r="P6" s="0">
-        <v>1.1043512683792343</v>
+        <v>1.0170018392716333</v>
       </c>
       <c r="Q6" s="0">
-        <v>0.033436852446521115</v>
+        <v>0.011154028264286421</v>
       </c>
       <c r="R6" s="0">
-        <v>0.58313836542725495</v>
+        <v>0.24259523203254435</v>
       </c>
       <c r="S6" s="0">
-        <v>1.1054460519816127</v>
+        <v>1.0009867749055978</v>
       </c>
       <c r="T6" s="0">
-        <v>1.3771543801674591</v>
+        <v>0.021113709046088468</v>
       </c>
       <c r="U6" s="0">
-        <v>1.6038373169266624</v>
+        <v>0.54824399933241741</v>
       </c>
       <c r="V6" s="0">
-        <v>1.8639647549286549</v>
+        <v>2.0235240355443858</v>
       </c>
       <c r="W6" s="0">
-        <v>0.012973930469087361</v>
+        <v>0.015943908158573099</v>
       </c>
       <c r="X6" s="0">
-        <v>0.20847877109347146</v>
+        <v>0.41669656231775504</v>
       </c>
       <c r="Y6" s="0">
-        <v>0.52157974673181529</v>
+        <v>1.7502058842320487</v>
       </c>
       <c r="Z6" s="0">
-        <v>0.017820666764828373</v>
+        <v>0.079660605296082251</v>
       </c>
       <c r="AA6" s="0">
-        <v>0.22404922779618486</v>
+        <v>1.0053298423663883</v>
       </c>
       <c r="AB6" s="0">
-        <v>0.52797946680425101</v>
+        <v>2.2152312924077018</v>
+      </c>
+      <c r="AC6" s="0">
+        <v>0.5934721700478176</v>
+      </c>
+      <c r="AD6" s="0">
+        <v>1.0077383013318815</v>
+      </c>
+      <c r="AE6" s="0">
+        <v>1.130766185696348</v>
+      </c>
+      <c r="AF6" s="0">
+        <v>1.362503184904861</v>
+      </c>
+      <c r="AG6" s="0">
+        <v>1.4524998673789344</v>
+      </c>
+      <c r="AH6" s="0">
+        <v>1.6087095710371544</v>
+      </c>
+      <c r="AI6" s="0">
+        <v>1.7670969988394876</v>
+      </c>
+      <c r="AJ6" s="0">
+        <v>1.865218496355546</v>
+      </c>
+      <c r="AK6" s="0">
+        <v>0.016677806672883853</v>
+      </c>
+      <c r="AL6" s="0">
+        <v>0.049249448617783687</v>
+      </c>
+      <c r="AM6" s="0">
+        <v>0.22255926893512112</v>
+      </c>
+      <c r="AN6" s="0">
+        <v>0.42667446036482615</v>
+      </c>
+      <c r="AO6" s="0">
+        <v>0.53267852268278015</v>
+      </c>
+      <c r="AP6" s="0">
+        <v>0.0104664705965275</v>
+      </c>
+      <c r="AQ6" s="0">
+        <v>0.037445010557610757</v>
+      </c>
+      <c r="AR6" s="0">
+        <v>0.20194906560246279</v>
+      </c>
+      <c r="AS6" s="0">
+        <v>0.41280387200712693</v>
+      </c>
+      <c r="AT6" s="0">
+        <v>0.52524719061361247</v>
       </c>
     </row>
     <row r="7">
@@ -699,85 +1095,139 @@
         <v>42278</v>
       </c>
       <c r="B7" s="0">
-        <v>0.00052964268265921766</v>
+        <v>0.078496920505710138</v>
       </c>
       <c r="C7" s="0">
-        <v>0.0029534666122973743</v>
+        <v>1.062746570392185</v>
       </c>
       <c r="D7" s="0">
-        <v>0.011754761859386875</v>
+        <v>2.6032211874912399</v>
       </c>
       <c r="E7" s="0">
-        <v>0.082475340801495725</v>
+        <v>0.054188997381644517</v>
       </c>
       <c r="F7" s="0">
-        <v>0.90517966824173357</v>
+        <v>0.73934154961939513</v>
       </c>
       <c r="G7" s="0">
-        <v>1.777047987275767</v>
+        <v>2.2139431666466534</v>
       </c>
       <c r="H7" s="0">
-        <v>0.054055899245806061</v>
+        <v>0.027349001077384492</v>
       </c>
       <c r="I7" s="0">
-        <v>0.91804927514228063</v>
+        <v>0.5539546886939346</v>
       </c>
       <c r="J7" s="0">
-        <v>1.7361543323340904</v>
+        <v>2.1905587530979105</v>
       </c>
       <c r="K7" s="0">
-        <v>0.00029191991298394986</v>
+        <v>0.063995603769863074</v>
       </c>
       <c r="L7" s="0">
-        <v>0.0032554912434914277</v>
+        <v>0.6299421775201528</v>
       </c>
       <c r="M7" s="0">
-        <v>0.012881308461200331</v>
+        <v>1.6071334619255573</v>
       </c>
       <c r="N7" s="0">
-        <v>0.042572061696633343</v>
+        <v>0.023879622534394157</v>
       </c>
       <c r="O7" s="0">
-        <v>0.68779326167603105</v>
+        <v>0.43168877788576876</v>
       </c>
       <c r="P7" s="0">
-        <v>1.4182191776244655</v>
+        <v>1.3456686325994793</v>
       </c>
       <c r="Q7" s="0">
-        <v>0.047347688004163807</v>
+        <v>0.014535769387140678</v>
       </c>
       <c r="R7" s="0">
-        <v>0.75639874951092523</v>
+        <v>0.33044210910003702</v>
       </c>
       <c r="S7" s="0">
-        <v>1.4180152260813843</v>
+        <v>1.3474698697874206</v>
       </c>
       <c r="T7" s="0">
-        <v>1.6791606952006126</v>
+        <v>0.031248319577341206</v>
       </c>
       <c r="U7" s="0">
-        <v>1.9830794108568839</v>
+        <v>0.74053615652820337</v>
       </c>
       <c r="V7" s="0">
-        <v>2.3221197034816887</v>
+        <v>2.7312253759820821</v>
       </c>
       <c r="W7" s="0">
-        <v>0.024465308639186355</v>
+        <v>0.022967782898567581</v>
       </c>
       <c r="X7" s="0">
-        <v>0.33076619967596149</v>
+        <v>0.55819270776732322</v>
       </c>
       <c r="Y7" s="0">
-        <v>0.8218186003979856</v>
+        <v>2.3655003903835974</v>
       </c>
       <c r="Z7" s="0">
-        <v>0.027112088967756347</v>
+        <v>0.10011337273054693</v>
       </c>
       <c r="AA7" s="0">
-        <v>0.34225015852323126</v>
+        <v>1.3385668980553116</v>
       </c>
       <c r="AB7" s="0">
-        <v>0.82642235117905705</v>
+        <v>2.9643437072893208</v>
+      </c>
+      <c r="AC7" s="0">
+        <v>0.75272059164794602</v>
+      </c>
+      <c r="AD7" s="0">
+        <v>1.2718343839245376</v>
+      </c>
+      <c r="AE7" s="0">
+        <v>1.4423724224182655</v>
+      </c>
+      <c r="AF7" s="0">
+        <v>1.6621561531753675</v>
+      </c>
+      <c r="AG7" s="0">
+        <v>1.7769572031297507</v>
+      </c>
+      <c r="AH7" s="0">
+        <v>1.9838416984644092</v>
+      </c>
+      <c r="AI7" s="0">
+        <v>2.1980604242651358</v>
+      </c>
+      <c r="AJ7" s="0">
+        <v>2.3395640042688091</v>
+      </c>
+      <c r="AK7" s="0">
+        <v>0.026157091497811362</v>
+      </c>
+      <c r="AL7" s="0">
+        <v>0.076456677715996776</v>
+      </c>
+      <c r="AM7" s="0">
+        <v>0.35299148463462171</v>
+      </c>
+      <c r="AN7" s="0">
+        <v>0.66705491013648022</v>
+      </c>
+      <c r="AO7" s="0">
+        <v>0.84784048511413124</v>
+      </c>
+      <c r="AP7" s="0">
+        <v>0.020807438144605731</v>
+      </c>
+      <c r="AQ7" s="0">
+        <v>0.061848689319298621</v>
+      </c>
+      <c r="AR7" s="0">
+        <v>0.3117517947827928</v>
+      </c>
+      <c r="AS7" s="0">
+        <v>0.64109475896761325</v>
+      </c>
+      <c r="AT7" s="0">
+        <v>0.83169332734699453</v>
       </c>
     </row>
   </sheetData>
